--- a/展開資料/カメラ・OCR機能IF定義書.xlsx
+++ b/展開資料/カメラ・OCR機能IF定義書.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NJUN\Documents\works\FMAP\中尾作成D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NJUN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11790" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11790" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>IF定義</t>
     <rPh sb="2" eb="4">
@@ -178,13 +178,6 @@
     </rPh>
     <rPh sb="71" eb="73">
       <t>セイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>intentにはOCRActivity.classを格納する</t>
-    <rPh sb="26" eb="28">
-      <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -232,11 +225,234 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>intentにはMediaStore.ACTION_IMAGE_CAPTUREを格納する</t>
+    <rPh sb="40" eb="42">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCRクラス初期化</t>
+    <rPh sb="6" eb="9">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultReadData ReadFoodData(Bitmap bitmap);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品データ読取り</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨミト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean Init( AssetManager assetMgr )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean 成否</t>
+    <rPh sb="8" eb="10">
+      <t>セイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultReadData
+ データ読取り結果</t>
+    <rPh sb="19" eb="21">
+      <t>ヨミト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bitmap[in]
+画像データ</t>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ画面のインテント</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BitMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラで撮影した画像
+(Bitmap) data.getExtras().get("data")により取得する</t>
+    <rPh sb="4" eb="6">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESULT_OKの場合撮影成功</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>サツエイセイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultReadData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultRead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nameList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付
+以下の方法で格納
+("年"-"月"-"日"-"時間"-"分")</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品名リスト</t>
+    <rPh sb="0" eb="3">
+      <t>ショクヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読取り結果
+RESULT_***</t>
+    <rPh sb="0" eb="2">
+      <t>ヨミト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用クラス</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCRAPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像から食品名を読取り、
+食品名をリストとして返却する。
+※ResultReadDataは構造体シート参照</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショクヒンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨミト</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショクヒンメイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RESULT_ERROR</t>
+    <t>RESULT_INIT_ERROR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESULT_CONVERT_ERROR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">assetMgr[in]
+Assetファイルの管理クラス
+getAssets();で取得する
+</t>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ読取り結果クラス</t>
+    <rPh sb="3" eb="5">
+      <t>ヨミト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -244,103 +460,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RESULT_NOT_TAKE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESULT_CONVERT_ERROR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未確認エラー</t>
+    <t>初期化エラー
+アプリ内で対処不能のエラー</t>
     <rPh sb="0" eb="3">
-      <t>ミカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>写真未撮影</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ミサツエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変換エラー</t>
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCRでの変換エラー</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変換成功</t>
     <rPh sb="0" eb="2">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ArrayList&lt;String&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品名をリストとして保持する
-getSerializableExtra("NameList")により取得する</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付を以下の方法で保持する
-("年"-"月"-"日"-"時間"-"分")
-getStringExtra("Date")により取得する</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>シュトク</t>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,8 +497,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +514,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +539,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -579,13 +744,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,25 +808,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,6 +876,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,8 +1199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -975,22 +1212,22 @@
   <sheetData>
     <row r="1" spans="4:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="4:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="8" spans="4:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="4:8" x14ac:dyDescent="0.4">
@@ -1005,9 +1242,13 @@
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="31">
         <v>42938</v>
       </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1020,184 +1261,229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.125" customWidth="1"/>
-    <col min="9" max="9" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="10" max="10" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="75" x14ac:dyDescent="0.4">
-      <c r="C3" s="8">
+    <row r="3" spans="3:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="C3" s="18">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" ht="131.25" x14ac:dyDescent="0.4">
-      <c r="C4" s="8">
+      <c r="J3" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C5" s="8">
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C6" s="8">
+      <c r="D5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="3:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C7" s="8">
+      <c r="D6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="8">
+      <c r="I7" s="1"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="8">
+      <c r="I8" s="1"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="8">
+      <c r="I9" s="1"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="8">
+      <c r="I10" s="1"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="1"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <f>ROW()-2</f>
         <v>10</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="5"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1207,10 +1493,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1224,7 +1512,7 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1232,82 +1520,100 @@
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="3:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C5" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="C5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="8"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="8"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="9"/>
+      <c r="E6" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="8"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="5"/>
     </row>
   </sheetData>
@@ -1318,15 +1624,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -1334,10 +1642,10 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1345,77 +1653,69 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>32</v>
+      <c r="F4" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>33</v>
+      <c r="F5" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="5"/>
     </row>
   </sheetData>
